--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>10.077049301567</v>
+        <v>12.25382850906067</v>
       </c>
       <c r="R2">
-        <v>90.693443714103</v>
+        <v>110.284456581546</v>
       </c>
       <c r="S2">
-        <v>0.01742741046591311</v>
+        <v>0.01866981183047428</v>
       </c>
       <c r="T2">
-        <v>0.01742741046591311</v>
+        <v>0.01866981183047428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>41.01776666767166</v>
+        <v>76.006413364235</v>
       </c>
       <c r="R3">
-        <v>369.159900009045</v>
+        <v>684.057720278115</v>
       </c>
       <c r="S3">
-        <v>0.07093678265535577</v>
+        <v>0.1158026191055525</v>
       </c>
       <c r="T3">
-        <v>0.07093678265535576</v>
+        <v>0.1158026191055525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>13.46893800527377</v>
+        <v>30.43528057409667</v>
       </c>
       <c r="R4">
-        <v>121.220442047464</v>
+        <v>273.91752516687</v>
       </c>
       <c r="S4">
-        <v>0.02329339711787877</v>
+        <v>0.04637089224040655</v>
       </c>
       <c r="T4">
-        <v>0.02329339711787877</v>
+        <v>0.04637089224040655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>47.73934491239667</v>
+        <v>72.318481716839</v>
       </c>
       <c r="R5">
-        <v>429.65410421157</v>
+        <v>650.866335451551</v>
       </c>
       <c r="S5">
-        <v>0.08256118773109149</v>
+        <v>0.1101837229499858</v>
       </c>
       <c r="T5">
-        <v>0.08256118773109149</v>
+        <v>0.1101837229499858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>29.59976221511801</v>
+        <v>19.42443556855245</v>
       </c>
       <c r="R6">
-        <v>266.397859936062</v>
+        <v>174.819920116972</v>
       </c>
       <c r="S6">
-        <v>0.05119030287328968</v>
+        <v>0.02959487777308916</v>
       </c>
       <c r="T6">
-        <v>0.05119030287328967</v>
+        <v>0.02959487777308916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>120.4832985951033</v>
@@ -883,10 +883,10 @@
         <v>1084.34968735593</v>
       </c>
       <c r="S7">
-        <v>0.2083657463675928</v>
+        <v>0.183567161220037</v>
       </c>
       <c r="T7">
-        <v>0.2083657463675928</v>
+        <v>0.183567161220037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>39.56290679100622</v>
+        <v>48.24517872803779</v>
       </c>
       <c r="R8">
-        <v>356.066161119056</v>
+        <v>434.2066085523401</v>
       </c>
       <c r="S8">
-        <v>0.06842072468220546</v>
+        <v>0.07350587678896058</v>
       </c>
       <c r="T8">
-        <v>0.06842072468220546</v>
+        <v>0.07350587678896056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>140.2268873977534</v>
+        <v>114.6372896834313</v>
       </c>
       <c r="R9">
-        <v>1262.04198657978</v>
+        <v>1031.735607150882</v>
       </c>
       <c r="S9">
-        <v>0.2425106250753394</v>
+        <v>0.1746602399048342</v>
       </c>
       <c r="T9">
-        <v>0.2425106250753394</v>
+        <v>0.1746602399048342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>1.021455796386</v>
+        <v>1.328545319836222</v>
       </c>
       <c r="R10">
-        <v>9.193102167474001</v>
+        <v>11.956907878526</v>
       </c>
       <c r="S10">
-        <v>0.001766522014895456</v>
+        <v>0.002024158499628039</v>
       </c>
       <c r="T10">
-        <v>0.001766522014895456</v>
+        <v>0.002024158499628039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>4.157748390789999</v>
+        <v>8.240523741451668</v>
       </c>
       <c r="R11">
-        <v>37.41973551711</v>
+        <v>74.16471367306499</v>
       </c>
       <c r="S11">
-        <v>0.007190476661558015</v>
+        <v>0.01255518040942879</v>
       </c>
       <c r="T11">
-        <v>0.007190476661558015</v>
+        <v>0.01255518040942879</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>1.365273145434666</v>
+        <v>3.299756442218889</v>
       </c>
       <c r="R12">
-        <v>12.287458308912</v>
+        <v>29.69780797997</v>
       </c>
       <c r="S12">
-        <v>0.002361125245251934</v>
+        <v>0.005027476255038956</v>
       </c>
       <c r="T12">
-        <v>0.002361125245251934</v>
+        <v>0.005027476255038956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H13">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>4.83907829734</v>
+        <v>7.840682636575667</v>
       </c>
       <c r="R13">
-        <v>43.55170467606001</v>
+        <v>70.56614372918099</v>
       </c>
       <c r="S13">
-        <v>0.008368779514785365</v>
+        <v>0.01194598645958657</v>
       </c>
       <c r="T13">
-        <v>0.008368779514785367</v>
+        <v>0.01194598645958657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H14">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>11.186773911476</v>
+        <v>9.098653555769555</v>
       </c>
       <c r="R14">
-        <v>100.680965203284</v>
+        <v>81.887882001926</v>
       </c>
       <c r="S14">
-        <v>0.01934658598071406</v>
+        <v>0.01386261850092717</v>
       </c>
       <c r="T14">
-        <v>0.01934658598071406</v>
+        <v>0.01386261850092717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H15">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>45.53480570880666</v>
+        <v>56.43591492295166</v>
       </c>
       <c r="R15">
-        <v>409.81325137926</v>
+        <v>507.923234306565</v>
       </c>
       <c r="S15">
-        <v>0.07874862232236753</v>
+        <v>0.08598520138527148</v>
       </c>
       <c r="T15">
-        <v>0.07874862232236751</v>
+        <v>0.08598520138527149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H16">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>14.95219084313244</v>
+        <v>22.59865752255222</v>
       </c>
       <c r="R16">
-        <v>134.569717588192</v>
+        <v>203.38791770297</v>
       </c>
       <c r="S16">
-        <v>0.02585855833288581</v>
+        <v>0.03443109092439259</v>
       </c>
       <c r="T16">
-        <v>0.02585855833288581</v>
+        <v>0.03443109092439259</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H17">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>52.99659079110667</v>
+        <v>53.69756972967566</v>
       </c>
       <c r="R17">
-        <v>476.96931711996</v>
+        <v>483.2781275670809</v>
       </c>
       <c r="S17">
-        <v>0.09165315295887519</v>
+        <v>0.08181308575238626</v>
       </c>
       <c r="T17">
-        <v>0.09165315295887519</v>
+        <v>0.08181308575238627</v>
       </c>
     </row>
   </sheetData>
